--- a/etc/ツール・設計書/環境構築.xlsx
+++ b/etc/ツール・設計書/環境構築.xlsx
@@ -9,15 +9,15 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7680" tabRatio="1000"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7680" tabRatio="1000" activeTab="5"/>
   </bookViews>
   <sheets>
-    <sheet name="システム仕様" sheetId="6" r:id="rId1"/>
+    <sheet name="システム仕様他" sheetId="6" r:id="rId1"/>
     <sheet name="pleiadesのインストール" sheetId="10" r:id="rId2"/>
-    <sheet name="MySQLのダウンロード" sheetId="11" r:id="rId3"/>
-    <sheet name="DBの作成" sheetId="12" r:id="rId4"/>
-    <sheet name="サーバーの作成" sheetId="13" r:id="rId5"/>
-    <sheet name="起動～機能確認" sheetId="14" r:id="rId6"/>
+    <sheet name="Gitの設定" sheetId="15" r:id="rId3"/>
+    <sheet name="MySQLのダウンロード・DBの用意" sheetId="11" r:id="rId4"/>
+    <sheet name="喫緊の課題" sheetId="16" r:id="rId5"/>
+    <sheet name="今後やりたいこと" sheetId="17" r:id="rId6"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="70">
   <si>
     <t>システム仕様</t>
     <rPh sb="4" eb="6">
@@ -56,10 +56,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>Eclipse2023</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>データベース</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -101,22 +97,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>ソースコード共有はすべて指定のGithub上で行う</t>
-    <rPh sb="6" eb="8">
-      <t>キョウユウ</t>
-    </rPh>
-    <rPh sb="12" eb="14">
-      <t>シテイ</t>
-    </rPh>
-    <rPh sb="21" eb="22">
-      <t>ジョウ</t>
-    </rPh>
-    <rPh sb="23" eb="24">
-      <t>オコナ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>したがってフレームワークや外部APIの導入は可能な限り控える（JDBCなど必要最小限のものは可能とする）</t>
     <rPh sb="13" eb="15">
       <t>ガイブ</t>
@@ -142,28 +122,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>ネイティブなJavaSE11を利用することで新規参入人員のシステム編集を容易とすることを基本とする</t>
-    <rPh sb="15" eb="17">
-      <t>リヨウ</t>
-    </rPh>
-    <rPh sb="22" eb="26">
-      <t>シンキサンニュウ</t>
-    </rPh>
-    <rPh sb="26" eb="28">
-      <t>ジンイン</t>
-    </rPh>
-    <rPh sb="33" eb="35">
-      <t>ヘンシュウ</t>
-    </rPh>
-    <rPh sb="36" eb="38">
-      <t>ヨウイ</t>
-    </rPh>
-    <rPh sb="44" eb="46">
-      <t>キホン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>ソースコードのレビュー（コーディング規約の順守、処理の可読性の判断）はマージ担当者が責任をもって行う</t>
     <rPh sb="18" eb="20">
       <t>キヤク</t>
@@ -241,34 +199,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>下記URLより。ファイルインストール個所は初期値推奨（ソース内にファイルのパスを埋め込んでいる個所があるため）</t>
-    <rPh sb="0" eb="2">
-      <t>カキ</t>
-    </rPh>
-    <rPh sb="18" eb="20">
-      <t>カショ</t>
-    </rPh>
-    <rPh sb="21" eb="24">
-      <t>ショキチ</t>
-    </rPh>
-    <rPh sb="24" eb="26">
-      <t>スイショウ</t>
-    </rPh>
-    <rPh sb="30" eb="31">
-      <t>ナイ</t>
-    </rPh>
-    <rPh sb="40" eb="41">
-      <t>ウ</t>
-    </rPh>
-    <rPh sb="42" eb="43">
-      <t>コ</t>
-    </rPh>
-    <rPh sb="47" eb="49">
-      <t>カショ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>https://mergedoc.osdn.jp/</t>
   </si>
   <si>
@@ -291,6 +221,747 @@
     </rPh>
     <rPh sb="23" eb="24">
       <t>マエ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>https://qiita.com/youth_case/items/5c86b4504e197172a45f</t>
+  </si>
+  <si>
+    <t>コミット名の設定</t>
+    <rPh sb="4" eb="5">
+      <t>メイ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>セッテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>参考文献</t>
+    <rPh sb="0" eb="2">
+      <t>サンコウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ブンケン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>user.email</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>user.name</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>エントリーの追加から以下の2つのキーを各位設定のこと</t>
+    <rPh sb="6" eb="8">
+      <t>ツイカ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>イカ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>カクイ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>セッテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>下記URLより最新版pleades（推奨）を入手。Java関連だけインストールでOK。ファイルインストール個所は初期値推奨（ソース内にファイルのパスを埋め込んでいる個所があるため）</t>
+    <rPh sb="0" eb="2">
+      <t>カキ</t>
+    </rPh>
+    <rPh sb="7" eb="10">
+      <t>サイシンバン</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>スイショウ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>ニュウシュ</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>カンレン</t>
+    </rPh>
+    <rPh sb="53" eb="55">
+      <t>カショ</t>
+    </rPh>
+    <rPh sb="56" eb="59">
+      <t>ショキチ</t>
+    </rPh>
+    <rPh sb="59" eb="61">
+      <t>スイショウ</t>
+    </rPh>
+    <rPh sb="65" eb="66">
+      <t>ナイ</t>
+    </rPh>
+    <rPh sb="75" eb="76">
+      <t>ウ</t>
+    </rPh>
+    <rPh sb="77" eb="78">
+      <t>コ</t>
+    </rPh>
+    <rPh sb="82" eb="84">
+      <t>カショ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>https://dev.mysql.com/downloads/mysql/</t>
+  </si>
+  <si>
+    <t>下記URLよりMySQLをインストール。インストール方法はなんでも</t>
+    <rPh sb="0" eb="2">
+      <t>カキ</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>ホウホウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>root</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>user</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>以下推奨設定（プロパティファイルもしくは後の設定で変更可能）</t>
+    <rPh sb="0" eb="2">
+      <t>イカ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>スイショウ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>ノチ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="25" eb="29">
+      <t>ヘンコウカノウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>localhost</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>password</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>tdsl1234</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>デフォルトデータベース</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>tdsl_master</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>C:\pleiades\2023-06\workspace\TDSLWebProject\etc\CREATE文</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>MySQLに接続して以下に配置してあるCREATE文を実行</t>
+    <rPh sb="6" eb="8">
+      <t>セツゾク</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>イカ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ハイチ</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>ブン</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>ジッコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>userとloginテーブルのプライマリ（実質FKなので同一の必要あり）とユニークを埋め、kanriflgにtrue（管理者）を設定すればログイン～全操作可能となります</t>
+    <rPh sb="21" eb="23">
+      <t>ジッシツ</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>ドウイチ</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>ヒツヨウ</t>
+    </rPh>
+    <rPh sb="42" eb="43">
+      <t>ウ</t>
+    </rPh>
+    <rPh sb="59" eb="62">
+      <t>カンリシャ</t>
+    </rPh>
+    <rPh sb="64" eb="66">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="74" eb="77">
+      <t>ゼンソウサ</t>
+    </rPh>
+    <rPh sb="77" eb="79">
+      <t>カノウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>テストも必要最小限の単体程度しか行っていないため潜在的な不良も多数含まれています。</t>
+    <rPh sb="4" eb="9">
+      <t>ヒツヨウサイショウゲン</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>タンタイ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>テイド</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>オコナ</t>
+    </rPh>
+    <rPh sb="24" eb="27">
+      <t>センザイテキ</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>フリョウ</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>タスウ</t>
+    </rPh>
+    <rPh sb="33" eb="34">
+      <t>フク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>それらを理解したうえでご利用ください。</t>
+    <rPh sb="4" eb="6">
+      <t>リカイ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>リヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>このプログラムはあくまで</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>教育</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>を目的としているため実際のシステム構築の際にはまずやらないであろう処理、逆に必須だけどやっていない処理が多数含まれています。</t>
+    </r>
+    <rPh sb="12" eb="14">
+      <t>キョウイク</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>モクテキ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>ジッサイ</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>コウチク</t>
+    </rPh>
+    <rPh sb="34" eb="35">
+      <t>サイ</t>
+    </rPh>
+    <rPh sb="47" eb="49">
+      <t>ショリ</t>
+    </rPh>
+    <rPh sb="50" eb="51">
+      <t>ギャク</t>
+    </rPh>
+    <rPh sb="52" eb="54">
+      <t>ヒッス</t>
+    </rPh>
+    <rPh sb="63" eb="65">
+      <t>ショリ</t>
+    </rPh>
+    <rPh sb="66" eb="69">
+      <t>タスウフク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Eclipse2023/Windows</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ソースコード共有管理はすべて指定のGithub上で行う</t>
+    <rPh sb="6" eb="8">
+      <t>キョウユウ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>カンリ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>シテイ</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>ジョウ</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>オコナ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>←建前</t>
+    <rPh sb="1" eb="3">
+      <t>タテマエ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ネイティブなJavaSE11を利用することで新規参入人員のシステム編集を容易とする</t>
+    <rPh sb="15" eb="17">
+      <t>リヨウ</t>
+    </rPh>
+    <rPh sb="22" eb="26">
+      <t>シンキサンニュウ</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>ジンイン</t>
+    </rPh>
+    <rPh sb="33" eb="35">
+      <t>ヘンシュウ</t>
+    </rPh>
+    <rPh sb="36" eb="38">
+      <t>ヨウイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>見た目</t>
+    <rPh sb="0" eb="1">
+      <t>ミ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>メ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>HTML-CSSについては必要最小限しか作りこんでいません</t>
+    <rPh sb="13" eb="18">
+      <t>ヒツヨウサイショウゲン</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>ツク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>見た目があまりにも…なのでWebに興味のある方はどなたかお願いします。</t>
+    <rPh sb="0" eb="1">
+      <t>ミ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>メ</t>
+    </rPh>
+    <rPh sb="29" eb="30">
+      <t>ネガ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>フロント側チェック処理</t>
+    <rPh sb="4" eb="5">
+      <t>ガワ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ショリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>JavaScriptを重点的に勉強したい方は是非作成してください。</t>
+    <rPh sb="11" eb="14">
+      <t>ジュウテンテキ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ベンキョウ</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>カタ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>ゼヒ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>サクセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>テーブル設計周り</t>
+    <rPh sb="4" eb="6">
+      <t>セッケイ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>マワ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>行き当たりばったりなので大分変です。</t>
+    <rPh sb="0" eb="1">
+      <t>イ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ア</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ダイブ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>ヘン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>特にTIMESTAMPカラム等は業務アプリケーションを意識するなら必須ですが、途中までなかったため</t>
+    <rPh sb="0" eb="1">
+      <t>トク</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>ナド</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ギョウム</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>イシキ</t>
+    </rPh>
+    <rPh sb="33" eb="35">
+      <t>ヒッス</t>
+    </rPh>
+    <rPh sb="39" eb="41">
+      <t>トチュウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>初期に作ったマスタ周りにはTIMESTAMPの更新処理がなかったりします。</t>
+    <rPh sb="0" eb="2">
+      <t>ショキ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ツク</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>マワ</t>
+    </rPh>
+    <rPh sb="23" eb="27">
+      <t>コウシンショリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>サーバーで行うようなチェック（DBまで辿り着かないとチェックできないようなもの）は大抵実装していますが抜けもあると思います。</t>
+    <rPh sb="5" eb="6">
+      <t>オコナ</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>タド</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>ツ</t>
+    </rPh>
+    <rPh sb="41" eb="43">
+      <t>タイテイ</t>
+    </rPh>
+    <rPh sb="43" eb="45">
+      <t>ジッソウ</t>
+    </rPh>
+    <rPh sb="51" eb="52">
+      <t>ヌ</t>
+    </rPh>
+    <rPh sb="57" eb="58">
+      <t>オモ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>セキュリティ脆弱性</t>
+    <rPh sb="6" eb="9">
+      <t>ゼイジャクセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>主にJavaScriptでチェックするような入力チェック処理（必須項目の入力チェックとか桁数チェックとか確認ダイアログとか）をほとんど実装していません。</t>
+    <rPh sb="0" eb="1">
+      <t>オモ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>ショリ</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>ヒッス</t>
+    </rPh>
+    <rPh sb="33" eb="35">
+      <t>コウモク</t>
+    </rPh>
+    <rPh sb="36" eb="38">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="44" eb="46">
+      <t>ケタスウ</t>
+    </rPh>
+    <rPh sb="52" eb="54">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="67" eb="69">
+      <t>ジッソウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>パスワードが平文でおかれていたり管理者がすべてのユーザーを削除できるようなことが現実的に可能であったりと</t>
+    <rPh sb="6" eb="8">
+      <t>ヒラブン</t>
+    </rPh>
+    <rPh sb="16" eb="19">
+      <t>カンリシャ</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>サクジョ</t>
+    </rPh>
+    <rPh sb="40" eb="43">
+      <t>ゲンジツテキ</t>
+    </rPh>
+    <rPh sb="44" eb="46">
+      <t>カノウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>一般的な動的Webに求められるレベルのセキュリティが満たせていません</t>
+    <rPh sb="4" eb="6">
+      <t>ドウテキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>DBに対するアクセスもJDBCを直に操作するというよりフレームワークを用いた処理が殆どだと思われるのでその辺りも含め改善していただける方</t>
+    <rPh sb="3" eb="4">
+      <t>タイ</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>ジカ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>ソウサ</t>
+    </rPh>
+    <rPh sb="35" eb="36">
+      <t>モチ</t>
+    </rPh>
+    <rPh sb="38" eb="40">
+      <t>ショリ</t>
+    </rPh>
+    <rPh sb="41" eb="42">
+      <t>ホトン</t>
+    </rPh>
+    <rPh sb="45" eb="46">
+      <t>オモ</t>
+    </rPh>
+    <rPh sb="53" eb="54">
+      <t>アタ</t>
+    </rPh>
+    <rPh sb="56" eb="57">
+      <t>フク</t>
+    </rPh>
+    <rPh sb="58" eb="60">
+      <t>カイゼン</t>
+    </rPh>
+    <rPh sb="67" eb="68">
+      <t>カタ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アドバイス頂ける方を募集しています。</t>
+    <rPh sb="5" eb="6">
+      <t>イタダ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>カタ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ボシュウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>※こちらについてはあくまでも教育目的ということもあり意図的に省いている部分もあります</t>
+    <rPh sb="14" eb="16">
+      <t>キョウイク</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>モクテキ</t>
+    </rPh>
+    <rPh sb="26" eb="29">
+      <t>イトテキ</t>
+    </rPh>
+    <rPh sb="30" eb="31">
+      <t>ハブ</t>
+    </rPh>
+    <rPh sb="35" eb="37">
+      <t>ブブン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>HANBAI　DIRECT　ACCESS</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>※という名目ですが弊社創業メンバーの原氏・百目木氏・新井氏に敬意を評しています。</t>
+    <rPh sb="4" eb="6">
+      <t>メイモク</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ヘイシャ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ソウギョウ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>ハラシ</t>
+    </rPh>
+    <rPh sb="21" eb="24">
+      <t>ドウメキ</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>シ</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>アライ</t>
+    </rPh>
+    <rPh sb="28" eb="29">
+      <t>シ</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>ケイイ</t>
+    </rPh>
+    <rPh sb="33" eb="34">
+      <t>ヒョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>SpringBoot/AngularJS/MySQL/Linux　の比較的モダンなシステムを目指しています。</t>
+    <rPh sb="34" eb="37">
+      <t>ヒカクテキ</t>
+    </rPh>
+    <rPh sb="46" eb="48">
+      <t>メザ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>販売管理システム　HAD（仮称）</t>
+    <rPh sb="0" eb="4">
+      <t>ハンバイカンリ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>カショウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>おみくじアプリ（仮称）</t>
+    <rPh sb="8" eb="10">
+      <t>カショウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Ruby on Rails　とかで作りたいなと思っています。</t>
+    <rPh sb="17" eb="18">
+      <t>ツク</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>オモ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>リアル忘年会で毎年ビンゴとかおみくじとかやっていますが、そろそろデジタル化したいので</t>
+    <rPh sb="3" eb="6">
+      <t>ボウネンカイ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>マイトシ</t>
+    </rPh>
+    <rPh sb="36" eb="37">
+      <t>カ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>完全にWeb上で動作するおみくじ、参加者のスマホにトークン渡してビンゴ機能とかできたらいいなと</t>
+    <rPh sb="0" eb="2">
+      <t>カンゼン</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ジョウ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ドウサ</t>
+    </rPh>
+    <rPh sb="17" eb="20">
+      <t>サンカシャ</t>
+    </rPh>
+    <rPh sb="29" eb="30">
+      <t>ワタ</t>
+    </rPh>
+    <rPh sb="35" eb="37">
+      <t>キノウ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -299,7 +970,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -310,6 +981,48 @@
     </font>
     <font>
       <sz val="6"/>
+      <name val="游ゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="游ゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0" tint="-0.34998626667073579"/>
       <name val="游ゴシック"/>
       <family val="2"/>
       <charset val="128"/>
@@ -391,7 +1104,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -404,13 +1117,25 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -428,6 +1153,125 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>589705</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>237470</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="図 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="285750" y="952500"/>
+          <a:ext cx="6761905" cy="5238095"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>180181</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>218512</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="図 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="285750" y="6429375"/>
+          <a:ext cx="6352381" cy="4504762"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>65809</xdr:colOff>
+      <xdr:row>77</xdr:row>
+      <xdr:rowOff>237381</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="図 6"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="285750" y="12382500"/>
+          <a:ext cx="6923809" cy="5952381"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -694,24 +1538,24 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="B2:P14"/>
+  <dimension ref="B2:O18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="3.5" customWidth="1"/>
     <col min="2" max="2" width="29.625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:16" x14ac:dyDescent="0.4">
-      <c r="B2" s="4" t="s">
+    <row r="2" spans="2:15" x14ac:dyDescent="0.4">
+      <c r="B2" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="5"/>
-    </row>
-    <row r="3" spans="2:16" x14ac:dyDescent="0.4">
+      <c r="C2" s="6"/>
+    </row>
+    <row r="3" spans="2:15" x14ac:dyDescent="0.4">
       <c r="B3" s="2" t="s">
         <v>1</v>
       </c>
@@ -719,75 +1563,93 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="2:16" x14ac:dyDescent="0.4">
+    <row r="4" spans="2:15" x14ac:dyDescent="0.4">
       <c r="B4" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C4" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="5" spans="2:15" x14ac:dyDescent="0.4">
+      <c r="B5" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="2:15" x14ac:dyDescent="0.4">
+      <c r="B6" s="2" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="5" spans="2:16" x14ac:dyDescent="0.4">
-      <c r="B5" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C5" s="1" t="s">
+      <c r="C6" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="2:15" x14ac:dyDescent="0.4">
+      <c r="B7" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="2:15" x14ac:dyDescent="0.4">
+      <c r="B8" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="2:15" x14ac:dyDescent="0.4">
+      <c r="B10" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="O10" s="4" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="11" spans="2:15" x14ac:dyDescent="0.4">
+      <c r="B11" s="3" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="2:16" x14ac:dyDescent="0.4">
-      <c r="B6" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="7" spans="2:16" x14ac:dyDescent="0.4">
-      <c r="B7" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="8" spans="2:16" x14ac:dyDescent="0.4">
-      <c r="B8" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10" spans="2:16" x14ac:dyDescent="0.4">
-      <c r="B10" s="3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="11" spans="2:16" x14ac:dyDescent="0.4">
-      <c r="B11" s="3" t="s">
+    <row r="12" spans="2:15" x14ac:dyDescent="0.4">
+      <c r="B12" s="3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="13" spans="2:15" x14ac:dyDescent="0.4">
+      <c r="B13" s="3" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="12" spans="2:16" x14ac:dyDescent="0.4">
-      <c r="B12" s="3" t="s">
+      <c r="O13" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="14" spans="2:15" x14ac:dyDescent="0.4">
+      <c r="B14" s="3" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="13" spans="2:16" x14ac:dyDescent="0.4">
-      <c r="B13" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="P13" s="6" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="14" spans="2:16" x14ac:dyDescent="0.4">
-      <c r="B14" s="3" t="s">
+      <c r="O14" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="P14" s="6" t="s">
-        <v>20</v>
+    </row>
+    <row r="16" spans="2:15" x14ac:dyDescent="0.4">
+      <c r="B16" s="8" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="17" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B17" s="9" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="18" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B18" s="9" t="s">
+        <v>39</v>
       </c>
     </row>
   </sheetData>
@@ -802,57 +1664,77 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:B4"/>
+  <dimension ref="A2:C53"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="3.75" customWidth="1"/>
+    <col min="2" max="2" width="9" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A2" s="7">
+        <v>0</v>
+      </c>
       <c r="B2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="B3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A5" s="7">
+        <v>1</v>
+      </c>
+      <c r="B5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A49">
+        <v>2</v>
+      </c>
+      <c r="B49" s="7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="B50" t="s">
+        <v>20</v>
+      </c>
+      <c r="C50" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="2:2" x14ac:dyDescent="0.4">
-      <c r="B3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="4" spans="2:2" x14ac:dyDescent="0.4">
-      <c r="B4" t="s">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="B51" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="B52" t="s">
         <v>21</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="B53" t="s">
+        <v>22</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
-  <cols>
-    <col min="1" max="1" width="4.25" customWidth="1"/>
-  </cols>
-  <sheetData/>
-  <phoneticPr fontId="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
@@ -865,14 +1747,196 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A2:C14"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="4.25" customWidth="1"/>
+    <col min="2" max="2" width="21.75" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A2" s="7">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="B3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A5" s="7">
+        <v>1</v>
+      </c>
+      <c r="B5" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="B6" t="s">
+        <v>28</v>
+      </c>
+      <c r="C6" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="B7" t="s">
+        <v>30</v>
+      </c>
+      <c r="C7">
+        <v>8080</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="B8" t="s">
+        <v>31</v>
+      </c>
+      <c r="C8" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="B9" t="s">
+        <v>33</v>
+      </c>
+      <c r="C9" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A11" s="7">
+        <v>2</v>
+      </c>
+      <c r="B11" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="B12" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="B14" t="s">
+        <v>37</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:C17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="2" max="2" width="23.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="C3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A5">
+        <v>2</v>
+      </c>
+      <c r="B5" t="s">
+        <v>48</v>
+      </c>
+      <c r="C5" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="C6" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="C7" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A9">
+        <v>3</v>
+      </c>
+      <c r="B9" t="s">
+        <v>50</v>
+      </c>
+      <c r="C9" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="C10" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="C11" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A13">
+        <v>4</v>
+      </c>
+      <c r="B13" t="s">
+        <v>55</v>
+      </c>
+      <c r="C13" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="C14" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="C15" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="C16" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="17" spans="3:3" x14ac:dyDescent="0.4">
+      <c r="C17" s="10" t="s">
+        <v>61</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -880,14 +1944,53 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="B2:C10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J16" sqref="J16"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
-  <sheetData/>
+  <sheetData>
+    <row r="2" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="3" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="C3" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="4" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="C4" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="5" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="C5" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="7" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B7" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="8" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="C8" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="9" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="C9" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="10" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="C10" t="s">
+        <v>67</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
